--- a/ApolloQA/Data/RatingManual/GA/VA00059.VehicleAgeFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/VA00059.VehicleAgeFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00059.VehicleAgeFactors" sheetId="1" r:id="R2a1441566ec14d8d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00059.VehicleAgeFactors" sheetId="1" r:id="R266f322f8b0c4bb8"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,27 +12,414 @@
   <x:sheetData>
     <x:row>
       <x:c t="str">
+        <x:v>ClassCode</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Fleet Size Lower Bound</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Fleet Size Upper Bound</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>Vehicle Age Lower Bound</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Vehicle Age Upper Bound</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Vehicle Age Factor</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>1.1000</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>Class Code_Fleet Size_Vehicle Age Factor</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8632</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8709</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8791</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8791</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8791</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8791</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8791</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8791</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8791</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8791</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8791</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8791</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8791</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8791</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8791</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8791</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8791</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8791</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>1</x:v>
       </x:c>
@@ -40,10 +427,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0750</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>2</x:v>
       </x:c>
@@ -51,10 +447,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0500</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>3</x:v>
       </x:c>
@@ -67,16 +472,34 @@
     </x:row>
     <x:row>
       <x:c t="str">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>4</x:v>
       </x:c>
       <x:c t="str">
         <x:v>4</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9509</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>5</x:v>
       </x:c>
@@ -84,10 +507,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9350</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>6</x:v>
       </x:c>
@@ -95,10 +527,19 @@
         <x:v>6</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9178</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>7</x:v>
       </x:c>
@@ -106,10 +547,19 @@
         <x:v>7</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8997</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>8</x:v>
       </x:c>
@@ -117,10 +567,19 @@
         <x:v>8</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8808</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>9</x:v>
       </x:c>
@@ -128,32 +587,59 @@
         <x:v>9</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8611</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0.8409</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0.8203</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>12</x:v>
       </x:c>
@@ -161,10 +647,19 @@
         <x:v>12</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.7994</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>13</x:v>
       </x:c>
@@ -172,10 +667,19 @@
         <x:v>13</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.7783</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>14</x:v>
       </x:c>
@@ -183,10 +687,19 @@
         <x:v>14</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.7571</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>15</x:v>
       </x:c>
@@ -194,10 +707,19 @@
         <x:v>15</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.7360</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>16</x:v>
       </x:c>
@@ -205,10 +727,19 @@
         <x:v>16</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.7150</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>17</x:v>
       </x:c>
@@ -216,10 +747,19 @@
         <x:v>17</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6943</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>18</x:v>
       </x:c>
@@ -227,10 +767,19 @@
         <x:v>18</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6739</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>19</x:v>
       </x:c>
@@ -238,10 +787,19 @@
         <x:v>19</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6538</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>20</x:v>
       </x:c>
@@ -249,10 +807,19 @@
         <x:v>20</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6342</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>21</x:v>
       </x:c>
@@ -260,10 +827,19 @@
         <x:v>21</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6151</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>22</x:v>
       </x:c>
@@ -271,10 +847,19 @@
         <x:v>22</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.5965</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>23</x:v>
       </x:c>
@@ -282,10 +867,19 @@
         <x:v>23</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.5784</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>24</x:v>
       </x:c>
@@ -293,10 +887,19 @@
         <x:v>24</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.5610</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>25</x:v>
       </x:c>
@@ -304,10 +907,19 @@
         <x:v>25</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.5442</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>26</x:v>
       </x:c>
@@ -315,10 +927,19 @@
         <x:v>26</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.5281</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>27</x:v>
       </x:c>
@@ -326,10 +947,19 @@
         <x:v>27</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.5127</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>28</x:v>
       </x:c>
@@ -337,10 +967,19 @@
         <x:v>28</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.5000</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>29</x:v>
       </x:c>
@@ -348,10 +987,19 @@
         <x:v>29</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.5000</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>30</x:v>
       </x:c>
@@ -359,10 +1007,19 @@
         <x:v>30</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.5000</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>31</x:v>
       </x:c>
@@ -370,7 +1027,107 @@
         <x:v>+</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.5000</x:v>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9709</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9662</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9356</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9079</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8829</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
